--- a/文档/迷你商铺.xlsx
+++ b/文档/迷你商铺.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="店长功能列表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>功能点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,75 +46,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>商品入库接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品入库统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品出库接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售卖记录管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货源告警功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供手机端和web端的告警提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供售卖的商品的所有记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据售卖商品的记录进行每天统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以实现录入商品价格、数量进行简单计算方便提供这次进货商品所花费的成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品信息获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从本地或从“http://search.anccnet.com/searchResult2.aspx?keyword=条形码”获取产品信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进货管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积压货物告警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进货查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过商品名称或商品条形码，查询进货时间、商品分类以及商品进货价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺货告警提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警阈值设定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供商品积压时间长度值，超过这个值向店长发出告警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积压商品告警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以通过手机或web页面录入新进产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供商品剩余件数作为缺货触发条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>售卖统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商品入库接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品入库统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品出库接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售卖记录管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以通过手机或web页面录入新近产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货源告警功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为售卖提供厂库提货的接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>告警阈值设定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺货告警提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供商品剩余件数作为缺货触发条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供手机端和web端的告警提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供售卖的商品的所有记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据售卖商品的记录进行每天统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以实现录入商品价格、数量进行简单计算方便提供这次进货商品所花费的成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品信息获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从本地或从“http://search.anccnet.com/searchResult2.aspx?keyword=条形码”获取产品信息</t>
+    <t>售卖查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供日、周、月商品售卖查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据条形码或商品名称对商品进行日、周、月商品售卖查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进货记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录每次进货的时间、商品种类和价格生成数据报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于商品进货查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于时间段进货查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于商品售卖查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于时间段售卖查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  基于商品库存查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为售卖或清除积压商品提供仓库提货的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过商品名称或商品条形码，查询当前商品的入库时间、库存量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供日、周、月商品进货查询进货时间、商品分类以及商品进货价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -223,7 +299,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -241,7 +317,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -259,7 +335,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -274,6 +350,73 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -284,45 +427,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -333,6 +437,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -340,6 +470,36 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -351,13 +511,41 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -368,7 +556,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -378,41 +566,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -807,129 +1040,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.375" customWidth="1"/>
+    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" ht="21" thickBot="1">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="27">
+      <c r="A3" s="7"/>
+      <c r="B3" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="27.75" thickBot="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.25" thickTop="1">
+      <c r="A5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="40.5">
+      <c r="A6" s="7"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27">
+      <c r="A7" s="7"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="7"/>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="7"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="40.5">
-      <c r="A3" s="9"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="27">
-      <c r="A4" s="9"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="9"/>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="7"/>
+      <c r="B11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="7"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27.75" thickBot="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.25" thickTop="1">
+      <c r="A14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="7"/>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="9"/>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="11"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.25" thickBot="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14" t="s">
-        <v>21</v>
+    <row r="16" spans="1:4">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="27.75" thickBot="1">
+      <c r="A17" s="11"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="8">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -941,7 +1269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>

--- a/文档/迷你商铺.xlsx
+++ b/文档/迷你商铺.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>功能点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,22 @@
   </si>
   <si>
     <t>提供日、周、月商品进货查询进货时间、商品分类以及商品进货价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -238,7 +254,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -550,13 +566,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -578,33 +681,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -614,9 +693,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -641,11 +717,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1040,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1051,200 +1175,252 @@
     <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.625" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="45.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:5" ht="21" thickBot="1">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="27">
-      <c r="A3" s="7"/>
-      <c r="B3" s="28" t="s">
+    <row r="3" spans="1:5" ht="27">
+      <c r="A3" s="20"/>
+      <c r="B3" s="25" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="27.75" thickBot="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="21" t="s">
+    <row r="4" spans="1:5" ht="27.75" thickBot="1">
+      <c r="A4" s="21"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.25" thickTop="1">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:5" ht="14.25" thickTop="1">
+      <c r="A5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="40.5">
-      <c r="A6" s="7"/>
-      <c r="B6" s="9"/>
+    <row r="6" spans="1:5" ht="40.5">
+      <c r="A6" s="20"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27">
-      <c r="A7" s="7"/>
-      <c r="B7" s="10"/>
+    <row r="7" spans="1:5" ht="27">
+      <c r="A7" s="20"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="7"/>
+    <row r="8" spans="1:5">
+      <c r="A8" s="20"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="20"/>
+      <c r="B9" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="7"/>
-      <c r="B10" s="9"/>
+    <row r="10" spans="1:5">
+      <c r="A10" s="20"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="7"/>
-      <c r="B11" s="12" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="20"/>
+      <c r="B11" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="7"/>
-      <c r="B12" s="12"/>
+    <row r="12" spans="1:5">
+      <c r="A12" s="20"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27.75" thickBot="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="21" t="s">
+    <row r="13" spans="1:5" ht="27.75" thickBot="1">
+      <c r="A13" s="21"/>
+      <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.25" thickTop="1">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:5" ht="14.25" thickTop="1">
+      <c r="A14" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="7"/>
+    <row r="15" spans="1:5">
+      <c r="A15" s="20"/>
       <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="20"/>
+      <c r="B16" s="23" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="27.75" thickBot="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="14"/>
+    <row r="17" spans="1:5" ht="27.75" thickBot="1">
+      <c r="A17" s="29"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>33</v>
       </c>
     </row>

--- a/文档/迷你商铺.xlsx
+++ b/文档/迷你商铺.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,141 @@
     <sheet name="店长时序" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+日改为任意时间段</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>单位：天</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，最多差近一年；
+近三个月
+近一周
+近一个月</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+针对商品</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+需要增加数量针对商品</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t>功能点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,147 +195,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>提供手机端和web端的告警提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供售卖的商品的所有记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据售卖商品的记录进行每天统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品信息获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进货管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积压货物告警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进货查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺货告警提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警阈值设定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供商品积压时间长度值，超过这个值向店长发出告警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积压商品告警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供商品剩余件数作为缺货触发条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售卖统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售卖查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供日、周、月商品售卖查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据条形码或商品名称对商品进行日、周、月商品售卖查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进货记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录每次进货的时间、商品种类和价格生成数据报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于商品进货查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于时间段进货查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于商品售卖查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于时间段售卖查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  基于商品库存查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过商品名称或商品条形码，查询当前商品的入库时间、库存量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过商品名称或商品条形码，查询进货时间、商品分类以及商品进货价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从本地或从“http://search.anccnet.com/searchResult2.aspx?keyword=条形码”获取产品信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供日、周、月商品进货查询进货时间、商品分类以及商品进货价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以通过手机或web页面录入新进商品(预留扫描枪)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以实现录入商品价格、数量进行简单计算方便提供这次进货商品所花费的成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为售卖或清除积压商品提供仓库提货的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警阈值设定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>货源告警功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供手机端和web端的告警提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供售卖的商品的所有记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据售卖商品的记录进行每天统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以实现录入商品价格、数量进行简单计算方便提供这次进货商品所花费的成本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品信息获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从本地或从“http://search.anccnet.com/searchResult2.aspx?keyword=条形码”获取产品信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进货管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>积压货物告警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进货查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过商品名称或商品条形码，查询进货时间、商品分类以及商品进货价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺货告警提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>告警阈值设定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供商品积压时间长度值，超过这个值向店长发出告警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>积压商品告警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以通过手机或web页面录入新进产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供商品剩余件数作为缺货触发条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售卖统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售卖查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供日、周、月商品售卖查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据条形码或商品名称对商品进行日、周、月商品售卖查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进货记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录每次进货的时间、商品种类和价格生成数据报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于商品进货查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于时间段进货查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于商品售卖查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于时间段售卖查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  基于商品库存查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为售卖或清除积压商品提供仓库提货的接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过商品名称或商品条形码，查询当前商品的入库时间、库存量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供日、周、月商品进货查询进货时间、商品分类以及商品进货价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -214,7 +347,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +372,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -659,7 +813,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,6 +871,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -748,27 +929,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -803,7 +963,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -850,7 +1010,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1167,7 +1327,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1189,239 +1349,239 @@
       <c r="C1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>44</v>
+      <c r="D1" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="27">
+      <c r="A3" s="29"/>
+      <c r="B3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="27">
-      <c r="A3" s="20"/>
-      <c r="B3" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>47</v>
+      <c r="C3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27.75" thickBot="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>47</v>
+        <v>32</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>40</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" thickTop="1">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="40.5">
+      <c r="A6" s="29"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="27">
+      <c r="A7" s="29"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="40.5">
-      <c r="A6" s="20"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="27">
-      <c r="A7" s="20"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="20"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="32" t="s">
-        <v>45</v>
+      <c r="D8" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="20"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="29"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="20"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="20"/>
-      <c r="B11" s="22" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>46</v>
+      <c r="D11" s="23" t="s">
+        <v>39</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="20"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>46</v>
+        <v>23</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>39</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="27.75" thickBot="1">
-      <c r="A13" s="21"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="33" t="s">
-        <v>47</v>
-      </c>
       <c r="E13" s="14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25" thickTop="1">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="34" t="s">
-        <v>45</v>
+      <c r="D14" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="E14" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="29"/>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="20"/>
-      <c r="B15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="20"/>
-      <c r="B16" s="23" t="s">
-        <v>31</v>
+      <c r="A16" s="29"/>
+      <c r="B16" s="32" t="s">
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>40</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="27.75" thickBot="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="24"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>47</v>
+        <v>33</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>40</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1438,6 +1598,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
